--- a/utility/WSS_Data.xlsx
+++ b/utility/WSS_Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>currency</t>
   </si>
@@ -27,21 +27,9 @@
     <t>settlement_amount</t>
   </si>
   <si>
-    <t>nominal_amount_or_quantity</t>
-  </si>
-  <si>
-    <t>direction</t>
-  </si>
-  <si>
     <t>isin</t>
   </si>
   <si>
-    <t>value_or_settlement_date</t>
-  </si>
-  <si>
-    <t>standard_settlement_instruction</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
@@ -54,23 +42,72 @@
     <t>US6937512345</t>
   </si>
   <si>
-    <t>Delivery Versus Payment By UB Agent: Stream A/c 19200 Our Beneficiary Swift Code BKBKBK32 Our Agent BIC Code BKBKBKBK</t>
-  </si>
-  <si>
     <t>US9127123213</t>
   </si>
   <si>
     <t>PSET FFFF33</t>
   </si>
   <si>
-    <t>date_of_creation</t>
+    <t>buy_sell</t>
+  </si>
+  <si>
+    <t>settlement_date</t>
+  </si>
+  <si>
+    <t>SSI</t>
+  </si>
+  <si>
+    <t>creation_date</t>
+  </si>
+  <si>
+    <t>Stream A/c 19200 Our Beneficiary Swift Code BKBKBK32 Our Agent BIC Code BKBKBKBK</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions BANK OF NEW YORK, NEW YORK (BDS) FXF  Your Settlement Instructions CITBNK N.A. 0854CS104</t>
+  </si>
+  <si>
+    <t>US912812313</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOLDMAN SACHS
+/ER/1111
+CLIENT
+/ER/2222
+</t>
+  </si>
+  <si>
+    <t>FR00123123</t>
+  </si>
+  <si>
+    <t>US9127111117</t>
+  </si>
+  <si>
+    <t>0213123131089 CINK NYC
+CUST
+A/C 11111
+XXX12323
+Our Settlement:
+ABA # 03123123118 BK OF NYC/1231313, CIOUP GLOBAL MARKETS INC AS SETTLEMENT AGENT FOR 1231</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,14 +133,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -382,27 +427,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -411,71 +455,128 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45252</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>11948200</v>
-      </c>
-      <c r="D2">
-        <v>12000000</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>11849200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1">
         <v>45983</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45220</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>19777430.559999999</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>19777430.559999999</v>
-      </c>
-      <c r="D3">
-        <v>20000000</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F3" s="1">
         <v>45951</v>
       </c>
-      <c r="H3" t="s">
-        <v>13</v>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>29851455.460000001</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45931</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2">
+        <v>12312960</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45932</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45978</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>33862165.869999997</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45978</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/utility/WSS_Data.xlsx
+++ b/utility/WSS_Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="321">
   <si>
     <t>currency</t>
   </si>
@@ -91,6 +91,1550 @@
 XXX12323
 Our Settlement:
 ABA # 03123123118 BK OF NYC/1231313, CIOUP GLOBAL MARKETS INC AS SETTLEMENT AGENT FOR 1231</t>
+  </si>
+  <si>
+    <t>GB579468417V9</t>
+  </si>
+  <si>
+    <t>CREDIT SUISSE
+NYC
+IBAN GB06KEXL39744929637465
+BENEFICIARY ZENITH LLC
+SWIFT LCKKPLA1DDB
+REF U27PM2V50M</t>
+  </si>
+  <si>
+    <t>GB496002348Q9</t>
+  </si>
+  <si>
+    <t>CREDIT SUISSE
+CUST
+A/C 5077615688
+FRANKFURT
+/ER/1135
+CLIENT
+/ER/9534</t>
+  </si>
+  <si>
+    <t>CH57268419931</t>
+  </si>
+  <si>
+    <t>BARCLAYS
+CUST
+A/C 7495390017
+SYDNEY
+/ER/1412
+CLIENT
+/ER/8166</t>
+  </si>
+  <si>
+    <t>NO793635508R1</t>
+  </si>
+  <si>
+    <t>PSET MNOP77
+PARTY: ORION PARTNERS
+SWIFT LVWCNHFPX7K
+ACC 6773297417
+INSTR IOL6IQRA6P</t>
+  </si>
+  <si>
+    <t>IT486316023Q6</t>
+  </si>
+  <si>
+    <t>JPMORGAN
+CUST
+A/C 7869253933
+MADRID
+/ER/4882
+CLIENT
+/ER/9078</t>
+  </si>
+  <si>
+    <t>IT100224715F3</t>
+  </si>
+  <si>
+    <t>PSET PSET12
+PARTY: NOVA BANK
+SWIFT NUFBHPH9NOV
+ACC 7906290185
+INSTR REFD20R8L0</t>
+  </si>
+  <si>
+    <t>NL394443907M7</t>
+  </si>
+  <si>
+    <t>Stream A/c 810623326 Our Beneficiary Swift Code YOLVHSETULY
+BENEFICIARY: ZENITH LLC
+PSET EFGH55
+REFERENCE Z7168FYANX</t>
+  </si>
+  <si>
+    <t>BE55034433592</t>
+  </si>
+  <si>
+    <t>CREDIT SUISSE
+CUST
+A/C 7496213995
+FRANKFURT
+/ER/8378
+CLIENT
+/ER/6171</t>
+  </si>
+  <si>
+    <t>IT842934264Y8</t>
+  </si>
+  <si>
+    <t>BNP PARIBAS
+CUST
+A/C 3674022182
+STOCKHOLM
+/ER/7583
+CLIENT
+/ER/5659</t>
+  </si>
+  <si>
+    <t>DE188306524L1</t>
+  </si>
+  <si>
+    <t>Stream A/c 3205412331 Our Beneficiary Swift Code WJPNQIR5DJW
+BENEFICIARY: ACME HOLDINGS
+PSET FFFF33
+REFERENCE D79N2IAG80</t>
+  </si>
+  <si>
+    <t>JP82650545798</t>
+  </si>
+  <si>
+    <t>PSET XXXX22
+PARTY: DELTA SECURITIES
+SWIFT QFDBDMJCQE7
+ACC 8676141738
+INSTR 24YZXZFNAD</t>
+  </si>
+  <si>
+    <t>FR72743275875</t>
+  </si>
+  <si>
+    <t>Stream A/c 5734093527 Our Beneficiary Swift Code FWUOVN67IKV
+BENEFICIARY: GAMMA INVESTMENTS
+PSET IJKL66
+REFERENCE OTCZAUXVJT</t>
+  </si>
+  <si>
+    <t>DE00824162574</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions DEUTSCHE BANK, A/C 7759813668
+BENEFICIARY: ACME HOLDINGS
+SWIFT: WXXHOOOHSC8
+REF: 9RKOUQJKEV</t>
+  </si>
+  <si>
+    <t>NO125063404M2</t>
+  </si>
+  <si>
+    <t>CREDIT SUISSE
+PARIS
+IBAN NO42DXCF26375673823867
+BENEFICIARY BETA CAPITAL
+SWIFT AZIJRC4EEK3
+REF UHUPAMD1DB</t>
+  </si>
+  <si>
+    <t>CA141877949R4</t>
+  </si>
+  <si>
+    <t>PSET UVWX99
+PARTY: GAMMA INVESTMENTS
+SWIFT JNYWLG8H4NR
+ACC 1002305645
+INSTR 5Z9RJYJMG1</t>
+  </si>
+  <si>
+    <t>ES800384441Y4</t>
+  </si>
+  <si>
+    <t>HSBC
+NYC
+IBAN ES43ZEPT33497439723430
+BENEFICIARY ALPHA ASSET MGMT
+SWIFT HJALKNEVWT3
+REF CNN7436KTK</t>
+  </si>
+  <si>
+    <t>IT777706454E5</t>
+  </si>
+  <si>
+    <t>Stream A/c 7961149389 Our Beneficiary Swift Code CHCYFFLO7Z6
+BENEFICIARY: DELTA SECURITIES
+PSET UVWX99
+REFERENCE HOVBFTSO0P</t>
+  </si>
+  <si>
+    <t>GB10499355204</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions CITI, A/C 5962184606
+BENEFICIARY: ZENITH LLC
+SWIFT: ABTTHCFBYYQ
+REF: 3A3JKQQD89</t>
+  </si>
+  <si>
+    <t>NO786108228A9</t>
+  </si>
+  <si>
+    <t>Stream A/c 827416700 Our Beneficiary Swift Code XDXDYRTWXZR
+BENEFICIARY: BETA CAPITAL
+PSET IJKL66
+REFERENCE R1586XZ9ES</t>
+  </si>
+  <si>
+    <t>CH20584825450</t>
+  </si>
+  <si>
+    <t>Stream A/c 6025352500 Our Beneficiary Swift Code EXWNFF7M0WV
+BENEFICIARY: OMEGA FUNDS
+PSET FFFF33
+REFERENCE DUER22X2RZ</t>
+  </si>
+  <si>
+    <t>JP300991219I9</t>
+  </si>
+  <si>
+    <t>Stream A/c 245099092 Our Beneficiary Swift Code JTFIGGQQRAV
+BENEFICIARY: ZENITH LLC
+PSET EFGH55
+REFERENCE WMRIVWT0H2</t>
+  </si>
+  <si>
+    <t>IT476914651Y6</t>
+  </si>
+  <si>
+    <t>PSET EFGH55
+PARTY: DELTA SECURITIES
+SWIFT HDKIOOKPA6D
+ACC 2776069314
+INSTR UAH54RT2V5</t>
+  </si>
+  <si>
+    <t>NO627123228Q4</t>
+  </si>
+  <si>
+    <t>Stream A/c 6833629220 Our Beneficiary Swift Code KNJQDVP15G1
+BENEFICIARY: GAMMA INVESTMENTS
+PSET UVWX99
+REFERENCE UQDDK6IW7Q</t>
+  </si>
+  <si>
+    <t>JP430835709E0</t>
+  </si>
+  <si>
+    <t>Stream A/c 3209800747 Our Beneficiary Swift Code UGCQIGCC5G6
+BENEFICIARY: SIGMA TRADING
+PSET PSET12
+REFERENCE EY4VCS1U1P</t>
+  </si>
+  <si>
+    <t>AU67797419843</t>
+  </si>
+  <si>
+    <t>JPMORGAN
+TOKYO
+IBAN AU68VRUI80278969771894
+BENEFICIARY OMEGA FUNDS
+SWIFT AVQWTX6G8J6
+REF APRXM9VU7K</t>
+  </si>
+  <si>
+    <t>NL686648041J8</t>
+  </si>
+  <si>
+    <t>CITI
+PARIS
+IBAN NL72ZGQJ11279223075416
+BENEFICIARY SIGMA TRADING
+SWIFT HENTPFN8H69
+REF CENRF3FDQV</t>
+  </si>
+  <si>
+    <t>GB065332972Z9</t>
+  </si>
+  <si>
+    <t>UBS
+OSLO
+IBAN GB58VLFI92360849467255
+BENEFICIARY ZENITH LLC
+SWIFT PCXWQM6BVD2
+REF YZMOTOGG3L</t>
+  </si>
+  <si>
+    <t>US745863003Y3</t>
+  </si>
+  <si>
+    <t>PSET ABCD11
+PARTY: ORION PARTNERS
+SWIFT MTENWRGEDSX
+ACC 1769243862
+INSTR 9LN6JA5VH2</t>
+  </si>
+  <si>
+    <t>BE829682745W3</t>
+  </si>
+  <si>
+    <t>PSET UVWX99
+PARTY: GAMMA INVESTMENTS
+SWIFT LPIQDZR9VML
+ACC 1920327545
+INSTR 86J8DM4EAI</t>
+  </si>
+  <si>
+    <t>SE452708731A5</t>
+  </si>
+  <si>
+    <t>JPMORGAN
+CUST
+A/C 8550385580
+STOCKHOLM
+/ER/7873
+CLIENT
+/ER/3605</t>
+  </si>
+  <si>
+    <t>SE627520208E7</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions UBS, A/C 5134785854
+BENEFICIARY: ALPHA ASSET MGMT
+SWIFT: OZANXWAHI1C
+REF: HBOSQH15QV</t>
+  </si>
+  <si>
+    <t>FR711843082P8</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions JPMORGAN, A/C 5247705772
+BENEFICIARY: ORION PARTNERS
+SWIFT: WXIDPP7UJJR
+REF: 3XUP6MSKRZ</t>
+  </si>
+  <si>
+    <t>IT85684943328</t>
+  </si>
+  <si>
+    <t>BNP PARIBAS
+CUST
+A/C 8668352782
+TOKYO
+/ER/8807
+CLIENT
+/ER/1972</t>
+  </si>
+  <si>
+    <t>BE058530268Q0</t>
+  </si>
+  <si>
+    <t>PSET XXXX22
+PARTY: SIGMA TRADING
+SWIFT OQDNALXJDIS
+ACC 6763086442
+INSTR M45CXNWAU9</t>
+  </si>
+  <si>
+    <t>CA567096595J0</t>
+  </si>
+  <si>
+    <t>Stream A/c 6963024707 Our Beneficiary Swift Code KRBUTG0GAXK
+BENEFICIARY: ALPHA ASSET MGMT
+PSET ZZZZ00
+REFERENCE ICILYQJ37T</t>
+  </si>
+  <si>
+    <t>JP989325321I6</t>
+  </si>
+  <si>
+    <t>JPMORGAN
+CUST
+A/C 621389523
+BRUSSELS
+/ER/5544
+CLIENT
+/ER/6460</t>
+  </si>
+  <si>
+    <t>CH475619650V5</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions GOLDMAN SACHS, A/C 44682046
+BENEFICIARY: NOVA BANK
+SWIFT: JXXCIUAR4JY
+REF: TROP6NB48S</t>
+  </si>
+  <si>
+    <t>NO649827173E7</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions GOLDMAN SACHS, A/C 1029699731
+BENEFICIARY: SIGMA TRADING
+SWIFT: JQWALWUR1VR
+REF: 5LOO8N4CHG</t>
+  </si>
+  <si>
+    <t>GB38629502938</t>
+  </si>
+  <si>
+    <t>Stream A/c 7605671349 Our Beneficiary Swift Code LVLQWTXN8I1
+BENEFICIARY: OMEGA FUNDS
+PSET EFGH55
+REFERENCE JNTQ8MG48Y</t>
+  </si>
+  <si>
+    <t>NO176488345Z3</t>
+  </si>
+  <si>
+    <t>CREDIT SUISSE
+SYDNEY
+IBAN NO45KZAA33228901751796
+BENEFICIARY ORION PARTNERS
+SWIFT BQUWAUUHD3D
+REF ORU2801ID9</t>
+  </si>
+  <si>
+    <t>NO634739316L4</t>
+  </si>
+  <si>
+    <t>PSET IJKL66
+PARTY: ALPHA ASSET MGMT
+SWIFT JXYFXKA33F2
+ACC 754762232
+INSTR 7QZJ7H0D31</t>
+  </si>
+  <si>
+    <t>JP687051830W1</t>
+  </si>
+  <si>
+    <t>PSET IJKL66
+PARTY: NOVA BANK
+SWIFT PVNDLTNSA01
+ACC 9923736915
+INSTR 47EAVZJB6Y</t>
+  </si>
+  <si>
+    <t>CH49286451511</t>
+  </si>
+  <si>
+    <t>CREDIT SUISSE
+CUST
+A/C 7708970792
+SYDNEY
+/ER/8283
+CLIENT
+/ER/8911</t>
+  </si>
+  <si>
+    <t>US72943726651</t>
+  </si>
+  <si>
+    <t>BANK OF NEW YORK
+CUST
+A/C 7258520613
+SYDNEY
+/ER/2749
+CLIENT
+/ER/8037</t>
+  </si>
+  <si>
+    <t>FR801418089J4</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions HSBC, A/C 5144618227
+BENEFICIARY: OMEGA FUNDS
+SWIFT: SWRXTDBB1KO
+REF: LB794ACQ6G</t>
+  </si>
+  <si>
+    <t>ES66479485756</t>
+  </si>
+  <si>
+    <t>CREDIT SUISSE
+AMSTERDAM
+IBAN ES99TJGP72726605669494
+BENEFICIARY DELTA SECURITIES
+SWIFT SBZPZHLAGEP
+REF II7AGC4WBT</t>
+  </si>
+  <si>
+    <t>NO428477627L2</t>
+  </si>
+  <si>
+    <t>CITI
+CUST
+A/C 7287732670
+OSLO
+/ER/3225
+CLIENT
+/ER/1163</t>
+  </si>
+  <si>
+    <t>IE612845609Y3</t>
+  </si>
+  <si>
+    <t>JPMORGAN
+MADRID
+IBAN IE88OEIJ40227533459922
+BENEFICIARY GAMMA INVESTMENTS
+SWIFT DMGXRA2ASGD
+REF 659SLMYQO4</t>
+  </si>
+  <si>
+    <t>IE08106866670</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions JPMORGAN, A/C 5749575963
+BENEFICIARY: ORION PARTNERS
+SWIFT: MEPDZE2G2DC
+REF: DL9WZDR7TJ</t>
+  </si>
+  <si>
+    <t>IE748992047C4</t>
+  </si>
+  <si>
+    <t>PSET IJKL66
+PARTY: ACME HOLDINGS
+SWIFT GXYIBJ967F8
+ACC 217536304
+INSTR PDDUY3DTYL</t>
+  </si>
+  <si>
+    <t>IT357546181R0</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions UBS, A/C 3028214552
+BENEFICIARY: ACME HOLDINGS
+SWIFT: IISZWLR7VCX
+REF: Z58Y7ALFOB</t>
+  </si>
+  <si>
+    <t>CA908557270B8</t>
+  </si>
+  <si>
+    <t>PSET MNOP77
+PARTY: ORION PARTNERS
+SWIFT TAWCUXTQ0KG
+ACC 2093571197
+INSTR M2RFY886R1</t>
+  </si>
+  <si>
+    <t>ES297503013K4</t>
+  </si>
+  <si>
+    <t>CREDIT SUISSE
+TORONTO
+IBAN ES75XMFU43409117514867
+BENEFICIARY GAMMA INVESTMENTS
+SWIFT FOCVUZRQ8WO
+REF 3BN1ZV51RQ</t>
+  </si>
+  <si>
+    <t>GB90258464681</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions JPMORGAN, A/C 9415087154
+BENEFICIARY: OMEGA FUNDS
+SWIFT: LLYXMS60Q3E
+REF: KD9HVV47B5</t>
+  </si>
+  <si>
+    <t>JP559177844J0</t>
+  </si>
+  <si>
+    <t>BNP PARIBAS
+DUBLIN
+IBAN JP11BWPH07966548723641
+BENEFICIARY GAMMA INVESTMENTS
+SWIFT EFDROSRV11N
+REF DYI5FYZ4CT</t>
+  </si>
+  <si>
+    <t>CH393214052D8</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions CREDIT SUISSE, A/C 4791295813
+BENEFICIARY: SIGMA TRADING
+SWIFT: IELVDDN6UHN
+REF: JEKU1WGSTY</t>
+  </si>
+  <si>
+    <t>IE625537434S0</t>
+  </si>
+  <si>
+    <t>PSET XXXX22
+PARTY: NOVA BANK
+SWIFT WKAXCOA1IA4
+ACC 383729066
+INSTR UV9Z3NFR74</t>
+  </si>
+  <si>
+    <t>JP805434769G2</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions DEUTSCHE BANK, A/C 354524783
+BENEFICIARY: BETA CAPITAL
+SWIFT: QUPGSZ1MEWR
+REF: 88T1KK2X7Z</t>
+  </si>
+  <si>
+    <t>DE35731691606</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions DEUTSCHE BANK, A/C 3081671291
+BENEFICIARY: ACME HOLDINGS
+SWIFT: BCDQTG7U8D3
+REF: 9KMEL4M6AY</t>
+  </si>
+  <si>
+    <t>NL738985091R3</t>
+  </si>
+  <si>
+    <t>Stream A/c 4019541601 Our Beneficiary Swift Code QWDVOTIZIPP
+BENEFICIARY: NOVA BANK
+PSET PSET12
+REFERENCE Z5X5IVXKEB</t>
+  </si>
+  <si>
+    <t>NL95291456042</t>
+  </si>
+  <si>
+    <t>CREDIT SUISSE
+ZURICH
+IBAN NL49KYVB07846543497927
+BENEFICIARY ORION PARTNERS
+SWIFT ERKQZWL3DZ3
+REF WIV622T6GS</t>
+  </si>
+  <si>
+    <t>CA646138503V6</t>
+  </si>
+  <si>
+    <t>BNP PARIBAS
+TOKYO
+IBAN CA14LSLH91515819113093
+BENEFICIARY GAMMA INVESTMENTS
+SWIFT PKIPYRJAEJB
+REF JBPYQK8QHJ</t>
+  </si>
+  <si>
+    <t>BE491007739H0</t>
+  </si>
+  <si>
+    <t>HSBC
+AMSTERDAM
+IBAN BE92ECHY64114044952685
+BENEFICIARY ZENITH LLC
+SWIFT LSOLAA6SWID
+REF XUJZKKDMZC</t>
+  </si>
+  <si>
+    <t>CH236205705R3</t>
+  </si>
+  <si>
+    <t>DEUTSCHE BANK
+CUST
+A/C 1921887746
+TORONTO
+/ER/8850
+CLIENT
+/ER/1772</t>
+  </si>
+  <si>
+    <t>ES607007576V0</t>
+  </si>
+  <si>
+    <t>PSET ABCD11
+PARTY: ORION PARTNERS
+SWIFT PXJNCIQ33MY
+ACC 2292225463
+INSTR GV6LNT7IK5</t>
+  </si>
+  <si>
+    <t>SE42072828397</t>
+  </si>
+  <si>
+    <t>JPMORGAN
+CUST
+A/C 8576587943
+BRUSSELS
+/ER/5226
+CLIENT
+/ER/4329</t>
+  </si>
+  <si>
+    <t>JP764580927S7</t>
+  </si>
+  <si>
+    <t>UBS
+CUST
+A/C 8957161808
+ZURICH
+/ER/6972
+CLIENT
+/ER/3064</t>
+  </si>
+  <si>
+    <t>CA094006800R4</t>
+  </si>
+  <si>
+    <t>Stream A/c 4456361802 Our Beneficiary Swift Code ZLFVCNKAZUN
+BENEFICIARY: BETA CAPITAL
+PSET QRST88
+REFERENCE Y33SXCVR4E</t>
+  </si>
+  <si>
+    <t>AU803197184K4</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions BARCLAYS, A/C 3634473010
+BENEFICIARY: DELTA SECURITIES
+SWIFT: LFJFDZ5Z920
+REF: IOVBUXWE77</t>
+  </si>
+  <si>
+    <t>IT72125131210</t>
+  </si>
+  <si>
+    <t>HSBC
+AMSTERDAM
+IBAN IT24OJVO25852667297117
+BENEFICIARY ACME HOLDINGS
+SWIFT ZQYUPXMN1T2
+REF LIGBY6OZYI</t>
+  </si>
+  <si>
+    <t>US077076938F6</t>
+  </si>
+  <si>
+    <t>CITI
+NYC
+IBAN US38DSEC30507796354162
+BENEFICIARY ZENITH LLC
+SWIFT SNGACJ2JR52
+REF TGY03QU17X</t>
+  </si>
+  <si>
+    <t>DE603660159J8</t>
+  </si>
+  <si>
+    <t>PSET ABCD11
+PARTY: OMEGA FUNDS
+SWIFT MGBUZTMW5YR
+ACC 2942606273
+INSTR 34QLYDWG97</t>
+  </si>
+  <si>
+    <t>ES744460547W8</t>
+  </si>
+  <si>
+    <t>Stream A/c 7252406296 Our Beneficiary Swift Code VYXGRYB72UT
+BENEFICIARY: BETA CAPITAL
+PSET QRST88
+REFERENCE 3HYVMXGO7M</t>
+  </si>
+  <si>
+    <t>DE728628904K6</t>
+  </si>
+  <si>
+    <t>Stream A/c 1120052639 Our Beneficiary Swift Code ZHEDKDSI1RT
+BENEFICIARY: DELTA SECURITIES
+PSET UVWX99
+REFERENCE DK281GPH6U</t>
+  </si>
+  <si>
+    <t>CA774545002J2</t>
+  </si>
+  <si>
+    <t>GOLDMAN SACHS
+CUST
+A/C 871129484
+TOKYO
+/ER/7764
+CLIENT
+/ER/6088</t>
+  </si>
+  <si>
+    <t>IE258584120Y1</t>
+  </si>
+  <si>
+    <t>BNP PARIBAS
+OSLO
+IBAN IE26FGNI34541639496591
+BENEFICIARY BETA CAPITAL
+SWIFT PUTQPT451RL
+REF LLIX64PFBD</t>
+  </si>
+  <si>
+    <t>AU402929957A0</t>
+  </si>
+  <si>
+    <t>GOLDMAN SACHS
+CUST
+A/C 3224543793
+LONDON
+/ER/7797
+CLIENT
+/ER/6483</t>
+  </si>
+  <si>
+    <t>IE13397871694</t>
+  </si>
+  <si>
+    <t>HSBC
+CUST
+A/C 360235547
+BRUSSELS
+/ER/2903
+CLIENT
+/ER/5464</t>
+  </si>
+  <si>
+    <t>SE18502915153</t>
+  </si>
+  <si>
+    <t>PSET PSET12
+PARTY: GAMMA INVESTMENTS
+SWIFT BUIPSXJHHFR
+ACC 1537227903
+INSTR H1H7KW6FSO</t>
+  </si>
+  <si>
+    <t>GB580804994M4</t>
+  </si>
+  <si>
+    <t>GOLDMAN SACHS
+CUST
+A/C 3750512489
+TORONTO
+/ER/4252
+CLIENT
+/ER/8374</t>
+  </si>
+  <si>
+    <t>DE970217117G0</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions CREDIT SUISSE, A/C 7599349354
+BENEFICIARY: ORION PARTNERS
+SWIFT: PTXSWGQSGTQ
+REF: RF49963ISB</t>
+  </si>
+  <si>
+    <t>CA474645010T3</t>
+  </si>
+  <si>
+    <t>PSET ZZZZ00
+PARTY: BETA CAPITAL
+SWIFT GAJPPVCX38Y
+ACC 3917934357
+INSTR DA1EU8JVNK</t>
+  </si>
+  <si>
+    <t>ES88397233120</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions JPMORGAN, A/C 4955116830
+BENEFICIARY: BETA CAPITAL
+SWIFT: SHSNRLM0NT7
+REF: 4EPMDM4ZVC</t>
+  </si>
+  <si>
+    <t>CH89675635276</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions BARCLAYS, A/C 8480717150
+BENEFICIARY: OMEGA FUNDS
+SWIFT: QKZVQJM8B7J
+REF: R4SEGCSKF8</t>
+  </si>
+  <si>
+    <t>US197024690J5</t>
+  </si>
+  <si>
+    <t>PSET FFFF33
+PARTY: SIGMA TRADING
+SWIFT CFJMHVXCDA5
+ACC 4203050432
+INSTR 1RYK0LU5T8</t>
+  </si>
+  <si>
+    <t>IT988687641A0</t>
+  </si>
+  <si>
+    <t>PSET PSET12
+PARTY: NOVA BANK
+SWIFT VGTMZJ6YASN
+ACC 8355554419
+INSTR MPTEZH39F3</t>
+  </si>
+  <si>
+    <t>FR598932088Y4</t>
+  </si>
+  <si>
+    <t>BARCLAYS
+CUST
+A/C 8954627805
+OSLO
+/ER/5698
+CLIENT
+/ER/9351</t>
+  </si>
+  <si>
+    <t>NO180037206W0</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions BANK OF NEW YORK, A/C 9242610593
+BENEFICIARY: SIGMA TRADING
+SWIFT: IYSLTRAYA2Y
+REF: BEM0NZNEX4</t>
+  </si>
+  <si>
+    <t>NL651415970F6</t>
+  </si>
+  <si>
+    <t>PSET EFGH55
+PARTY: ACME HOLDINGS
+SWIFT SXTFIU7FVN8
+ACC 449580790
+INSTR 06EI9Z6K77</t>
+  </si>
+  <si>
+    <t>IT313949687Z8</t>
+  </si>
+  <si>
+    <t>CREDIT SUISSE
+AMSTERDAM
+IBAN IT37OEDU13860564777308
+BENEFICIARY BETA CAPITAL
+SWIFT COCMOUJ0FKL
+REF CN8JA1BQJM</t>
+  </si>
+  <si>
+    <t>NL607536108V2</t>
+  </si>
+  <si>
+    <t>DEUTSCHE BANK
+CUST
+A/C 2166654311
+STOCKHOLM
+/ER/5298
+CLIENT
+/ER/4518</t>
+  </si>
+  <si>
+    <t>BE41710697559</t>
+  </si>
+  <si>
+    <t>JPMORGAN
+CUST
+A/C 468688006
+TORONTO
+/ER/1687
+CLIENT
+/ER/4040</t>
+  </si>
+  <si>
+    <t>GB832455014B5</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions DEUTSCHE BANK, A/C 6655780293
+BENEFICIARY: DELTA SECURITIES
+SWIFT: HZNDZRC6J0U
+REF: WGERLCDQ5U</t>
+  </si>
+  <si>
+    <t>NO498043790V0</t>
+  </si>
+  <si>
+    <t>BARCLAYS
+ZURICH
+IBAN NO34LDTI44306793270323
+BENEFICIARY DELTA SECURITIES
+SWIFT EMVSEWEQOLP
+REF 4VGKDZS66O</t>
+  </si>
+  <si>
+    <t>GB292889461C6</t>
+  </si>
+  <si>
+    <t>Stream A/c 6615114432 Our Beneficiary Swift Code NRNQHMUIHNQ
+BENEFICIARY: BETA CAPITAL
+PSET PSET12
+REFERENCE 8E8OEREJI3</t>
+  </si>
+  <si>
+    <t>SE11647595669</t>
+  </si>
+  <si>
+    <t>UBS
+OSLO
+IBAN SE29PFOL21691652350733
+BENEFICIARY ZENITH LLC
+SWIFT NATPEFL665F
+REF KCG20ZZ1PL</t>
+  </si>
+  <si>
+    <t>IT952237349R5</t>
+  </si>
+  <si>
+    <t>Stream A/c 2532386628 Our Beneficiary Swift Code QLVHKOK7BE1
+BENEFICIARY: DELTA SECURITIES
+PSET PSET12
+REFERENCE W690VK5DYA</t>
+  </si>
+  <si>
+    <t>NL236544360K9</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions HSBC, A/C 705477024
+BENEFICIARY: ORION PARTNERS
+SWIFT: PINKTHMC0TW
+REF: 2TLX92B3TN</t>
+  </si>
+  <si>
+    <t>US176496056R6</t>
+  </si>
+  <si>
+    <t>CITI
+AMSTERDAM
+IBAN US13VVHL31614274125238
+BENEFICIARY ORION PARTNERS
+SWIFT CXNVGKVMVKY
+REF UC8KSSESY2</t>
+  </si>
+  <si>
+    <t>CA881538196J7</t>
+  </si>
+  <si>
+    <t>CREDIT SUISSE
+ZURICH
+IBAN CA44BWAM58293138780859
+BENEFICIARY ORION PARTNERS
+SWIFT FXEHKX3MY7Z
+REF KV2MYHTD9T</t>
+  </si>
+  <si>
+    <t>GB68609461801</t>
+  </si>
+  <si>
+    <t>PSET IJKL66
+PARTY: ZENITH LLC
+SWIFT JXNGYPEEIIY
+ACC 1311970161
+INSTR LR105REV9S</t>
+  </si>
+  <si>
+    <t>AU904082836W4</t>
+  </si>
+  <si>
+    <t>CREDIT SUISSE
+CUST
+A/C 3139889691
+ZURICH
+/ER/8253
+CLIENT
+/ER/6624</t>
+  </si>
+  <si>
+    <t>BE830086828I3</t>
+  </si>
+  <si>
+    <t>CITI
+CUST
+A/C 7835082706
+MILAN
+/ER/9516
+CLIENT
+/ER/5263</t>
+  </si>
+  <si>
+    <t>FR02540285157</t>
+  </si>
+  <si>
+    <t>Stream A/c 9419148743 Our Beneficiary Swift Code ZUTPXUJ1V7Z
+BENEFICIARY: ALPHA ASSET MGMT
+PSET PSET12
+REFERENCE KMP0VHTKU2</t>
+  </si>
+  <si>
+    <t>NO711435126E9</t>
+  </si>
+  <si>
+    <t>CITI
+CUST
+A/C 5501558032
+MADRID
+/ER/2758
+CLIENT
+/ER/5989</t>
+  </si>
+  <si>
+    <t>BE76534585165</t>
+  </si>
+  <si>
+    <t>CITI
+FRANKFURT
+IBAN BE02UVJG89561733303478
+BENEFICIARY SIGMA TRADING
+SWIFT ZTJNWX03KYD
+REF XBN4A5HQ5M</t>
+  </si>
+  <si>
+    <t>AU84418209893</t>
+  </si>
+  <si>
+    <t>Stream A/c 4194335270 Our Beneficiary Swift Code QRFMRXH36ZV
+BENEFICIARY: DELTA SECURITIES
+PSET IJKL66
+REFERENCE VYMAYJUBBD</t>
+  </si>
+  <si>
+    <t>US923171250R6</t>
+  </si>
+  <si>
+    <t>PSET XXXX22
+PARTY: ORION PARTNERS
+SWIFT MZYJMI5W4JE
+ACC 2493129560
+INSTR 17P2CZMNPC</t>
+  </si>
+  <si>
+    <t>NL135395350W9</t>
+  </si>
+  <si>
+    <t>PSET FFFF33
+PARTY: ALPHA ASSET MGMT
+SWIFT OKGOQTX0L8Y
+ACC 4547802747
+INSTR 5UZ4KUFOQK</t>
+  </si>
+  <si>
+    <t>IE751822387J4</t>
+  </si>
+  <si>
+    <t>UBS
+CUST
+A/C 5012684741
+FRANKFURT
+/ER/1562
+CLIENT
+/ER/7820</t>
+  </si>
+  <si>
+    <t>NO55588700813</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions UBS, A/C 5941844733
+BENEFICIARY: SIGMA TRADING
+SWIFT: EBGLNQLG5KM
+REF: VDJTU3VGU6</t>
+  </si>
+  <si>
+    <t>CA450723076F4</t>
+  </si>
+  <si>
+    <t>PSET XXXX22
+PARTY: GAMMA INVESTMENTS
+SWIFT VEBXEJKH1VI
+ACC 515016131
+INSTR AINS9FVMOQ</t>
+  </si>
+  <si>
+    <t>FR759739675O9</t>
+  </si>
+  <si>
+    <t>HSBC
+CUST
+A/C 6672442877
+OSLO
+/ER/1001
+CLIENT
+/ER/6847</t>
+  </si>
+  <si>
+    <t>IT326844196M2</t>
+  </si>
+  <si>
+    <t>UBS
+LONDON
+IBAN IT31VRQM53221999099893
+BENEFICIARY ACME HOLDINGS
+SWIFT DVRAXE1BT1M
+REF IDIKKTO039</t>
+  </si>
+  <si>
+    <t>SE630363610V0</t>
+  </si>
+  <si>
+    <t>BNP PARIBAS
+AMSTERDAM
+IBAN SE35RPWO44604869221404
+BENEFICIARY ACME HOLDINGS
+SWIFT ONWLNOCIB9N
+REF U83TSRNDER</t>
+  </si>
+  <si>
+    <t>SE84288869616</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions DEUTSCHE BANK, A/C 1442659417
+BENEFICIARY: ACME HOLDINGS
+SWIFT: IADYDM6WI9C
+REF: JNEMR3PDZ4</t>
+  </si>
+  <si>
+    <t>CH47628918717</t>
+  </si>
+  <si>
+    <t>BANK OF NEW YORK
+CUST
+A/C 6033118055
+FRANKFURT
+/ER/3255
+CLIENT
+/ER/7428</t>
+  </si>
+  <si>
+    <t>NO387183792J0</t>
+  </si>
+  <si>
+    <t>GOLDMAN SACHS
+CUST
+A/C 9613090157
+MILAN
+/ER/6566
+CLIENT
+/ER/8393</t>
+  </si>
+  <si>
+    <t>ES98402973087</t>
+  </si>
+  <si>
+    <t>BANK OF NEW YORK
+CUST
+A/C 4137410324
+STOCKHOLM
+/ER/7759
+CLIENT
+/ER/4650</t>
+  </si>
+  <si>
+    <t>US923050761R9</t>
+  </si>
+  <si>
+    <t>BNP PARIBAS
+SYDNEY
+IBAN US28QODW01599979130769
+BENEFICIARY SIGMA TRADING
+SWIFT VRVNJRP6EZG
+REF 9Q6HAZ2Y23</t>
+  </si>
+  <si>
+    <t>NO03959085720</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions GOLDMAN SACHS, A/C 8101318871
+BENEFICIARY: DELTA SECURITIES
+SWIFT: MTDQRO1F7B1
+REF: YX44YAH81P</t>
+  </si>
+  <si>
+    <t>AU959538380Q8</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions DEUTSCHE BANK, A/C 8245220008
+BENEFICIARY: DELTA SECURITIES
+SWIFT: NLTGJH2JRW5
+REF: X7KFV9AD3E</t>
+  </si>
+  <si>
+    <t>IT197004906Z7</t>
+  </si>
+  <si>
+    <t>BNP PARIBAS
+CUST
+A/C 9435587432
+TOKYO
+/ER/5115
+CLIENT
+/ER/9549</t>
+  </si>
+  <si>
+    <t>SE40866099027</t>
+  </si>
+  <si>
+    <t>Stream A/c 5981519999 Our Beneficiary Swift Code BKRJXW26BI5
+BENEFICIARY: NOVA BANK
+PSET XXXX22
+REFERENCE 8UGTB4J3KY</t>
+  </si>
+  <si>
+    <t>IT220090534D1</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions UBS, A/C 5287040365
+BENEFICIARY: ZENITH LLC
+SWIFT: HPTUTUOXD4J
+REF: PFF99ONWHJ</t>
+  </si>
+  <si>
+    <t>JP837552810V4</t>
+  </si>
+  <si>
+    <t>PSET EFGH55
+PARTY: ALPHA ASSET MGMT
+SWIFT VHDKCSPJ1EL
+ACC 1508095822
+INSTR H505R16VY6</t>
+  </si>
+  <si>
+    <t>NO72523020103</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions HSBC, A/C 8479147021
+BENEFICIARY: NOVA BANK
+SWIFT: MCUCSD4YZXM
+REF: H3VGZDE7U5</t>
+  </si>
+  <si>
+    <t>ES280793404K5</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions JPMORGAN, A/C 3915085275
+BENEFICIARY: NOVA BANK
+SWIFT: GJLFSIPWA1J
+REF: RHO1EBA1TD</t>
+  </si>
+  <si>
+    <t>NL140213033D3</t>
+  </si>
+  <si>
+    <t>GOLDMAN SACHS
+CUST
+A/C 3627705794
+BRUSSELS
+/ER/5783
+CLIENT
+/ER/6088</t>
+  </si>
+  <si>
+    <t>IT168770907W0</t>
+  </si>
+  <si>
+    <t>PSET XXXX22
+PARTY: ALPHA ASSET MGMT
+SWIFT MPHIVE4BDB2
+ACC 1926260728
+INSTR ZVMTP2OI12</t>
+  </si>
+  <si>
+    <t>US786849655D7</t>
+  </si>
+  <si>
+    <t>GOLDMAN SACHS
+FRANKFURT
+IBAN US19WKSH18983744068995
+BENEFICIARY ALPHA ASSET MGMT
+SWIFT EIXMPIQ68N6
+REF R35KKB4JSX</t>
+  </si>
+  <si>
+    <t>IE587921144T9</t>
+  </si>
+  <si>
+    <t>PSET XXXX22
+PARTY: OMEGA FUNDS
+SWIFT BCZFXG9ZA26
+ACC 4496375877
+INSTR AS64J6TWBX</t>
+  </si>
+  <si>
+    <t>US673245867B9</t>
+  </si>
+  <si>
+    <t>GOLDMAN SACHS
+CUST
+A/C 4974268106
+FRANKFURT
+/ER/8168
+CLIENT
+/ER/3080</t>
+  </si>
+  <si>
+    <t>JP518936413D3</t>
+  </si>
+  <si>
+    <t>JPMORGAN
+CUST
+A/C 9881345124
+PARIS
+/ER/7318
+CLIENT
+/ER/5170</t>
+  </si>
+  <si>
+    <t>JP02573150253</t>
+  </si>
+  <si>
+    <t>BNP PARIBAS
+CUST
+A/C 3525036439
+MILAN
+/ER/6662
+CLIENT
+/ER/6541</t>
+  </si>
+  <si>
+    <t>IE210757552G4</t>
+  </si>
+  <si>
+    <t>Stream A/c 7433051264 Our Beneficiary Swift Code GYAKSX1TTLY
+BENEFICIARY: ZENITH LLC
+PSET XXXX22
+REFERENCE 2V5YKJI807</t>
+  </si>
+  <si>
+    <t>AU523465301W0</t>
+  </si>
+  <si>
+    <t>JPMORGAN
+FRANKFURT
+IBAN AU28JBKB88556257738849
+BENEFICIARY DELTA SECURITIES
+SWIFT KOGBXGW3OJK
+REF YQ24R8NR5R</t>
+  </si>
+  <si>
+    <t>CH744458447L7</t>
+  </si>
+  <si>
+    <t>PSET UVWX99
+PARTY: ZENITH LLC
+SWIFT GBBMNCIQX2Z
+ACC 7442091220
+INSTR P84SB63G0U</t>
+  </si>
+  <si>
+    <t>SE962228736V1</t>
+  </si>
+  <si>
+    <t>UBS
+CUST
+A/C 4096129797
+OSLO
+/ER/4728
+CLIENT
+/ER/6954</t>
+  </si>
+  <si>
+    <t>US398429299X2</t>
+  </si>
+  <si>
+    <t>Stream A/c 4631951941 Our Beneficiary Swift Code LHIIRI0DTKE
+BENEFICIARY: ZENITH LLC
+PSET ABCD11
+REFERENCE E681CO2J8I</t>
+  </si>
+  <si>
+    <t>US212288510E4</t>
+  </si>
+  <si>
+    <t>Stream A/c 2456187934 Our Beneficiary Swift Code FUBMLQ8OLTM
+BENEFICIARY: DELTA SECURITIES
+PSET IJKL66
+REFERENCE JV2WPPEZK7</t>
+  </si>
+  <si>
+    <t>FR616915182O9</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions UBS, A/C 757620860
+BENEFICIARY: ALPHA ASSET MGMT
+SWIFT: VMKZVUE5EXZ
+REF: 6JRV34MPAB</t>
+  </si>
+  <si>
+    <t>IT806083100G6</t>
+  </si>
+  <si>
+    <t>CREDIT SUISSE
+MADRID
+IBAN IT34YFKW43057078710363
+BENEFICIARY ALPHA ASSET MGMT
+SWIFT MPVHRY5SKRQ
+REF L8WJEVH9G3</t>
+  </si>
+  <si>
+    <t>IE457459241C6</t>
+  </si>
+  <si>
+    <t>Stream A/c 3352505986 Our Beneficiary Swift Code HATGPOCI7UM
+BENEFICIARY: NOVA BANK
+PSET FFFF33
+REFERENCE TV3819SF19</t>
+  </si>
+  <si>
+    <t>SE576516986Q7</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions HSBC, A/C 5965607226
+BENEFICIARY: BETA CAPITAL
+SWIFT: HYYPTEU1MCO
+REF: OOT8W2RDEO</t>
+  </si>
+  <si>
+    <t>DE945508976E8</t>
+  </si>
+  <si>
+    <t>DEUTSCHE BANK
+MILAN
+IBAN DE90NLUV39924028554642
+BENEFICIARY OMEGA FUNDS
+SWIFT OZIBZKYAGS5
+REF 9VEV4J641I</t>
+  </si>
+  <si>
+    <t>AU989736113B8</t>
+  </si>
+  <si>
+    <t>PSET ZZZZ00
+PARTY: GAMMA INVESTMENTS
+SWIFT NPQLBNB0Y57
+ACC 1097024096
+INSTR 6EIDDFQ4LD</t>
+  </si>
+  <si>
+    <t>CA38128177621</t>
+  </si>
+  <si>
+    <t>Stream A/c 9204989974 Our Beneficiary Swift Code KUTMFGN9ZIR
+BENEFICIARY: DELTA SECURITIES
+PSET UVWX99
+REFERENCE TQTZ4TFFTG</t>
+  </si>
+  <si>
+    <t>NL349697241I6</t>
+  </si>
+  <si>
+    <t>Our Settlement Instructions GOLDMAN SACHS, A/C 7072468203
+BENEFICIARY: ALPHA ASSET MGMT
+SWIFT: DGKVND23H4E
+REF: AOYA5QUO3N</t>
+  </si>
+  <si>
+    <t>CH09706430293</t>
+  </si>
+  <si>
+    <t>Stream A/c 2978989343 Our Beneficiary Swift Code NMKIDDUC72L
+BENEFICIARY: OMEGA FUNDS
+PSET XXXX22
+REFERENCE OCIPGMGTJP</t>
   </si>
 </sst>
 </file>
@@ -137,7 +1681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -146,6 +1690,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -427,10 +1986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,8 +1997,8 @@
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -471,16 +2030,16 @@
       <c r="A2" s="1">
         <v>45252</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2">
         <v>11849200</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="1">
@@ -494,16 +2053,16 @@
       <c r="A3" s="1">
         <v>45220</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3">
         <v>19777430.559999999</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="1">
@@ -517,16 +2076,16 @@
       <c r="A4" s="1">
         <v>45930</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2">
         <v>29851455.460000001</v>
       </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="1">
@@ -540,16 +2099,16 @@
       <c r="A5" s="1">
         <v>45930</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="2">
         <v>12312960</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="1">
@@ -563,13 +2122,16 @@
       <c r="A6" s="1">
         <v>45978</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2">
         <v>33862165.869999997</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="1">
@@ -577,6 +2139,3456 @@
       </c>
       <c r="G6" s="5" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>45087</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7">
+        <v>12489371.16</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="9">
+        <v>45089</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>45433</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7">
+        <v>46144778.25</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="9">
+        <v>45433</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>45949</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7">
+        <v>30155154.640000001</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="9">
+        <v>45949</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>45555</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7">
+        <v>46467887.789999999</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="9">
+        <v>45561</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>45663</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>31263191</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="9">
+        <v>45666</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>45602</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="7">
+        <v>25756471.07</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="9">
+        <v>45607</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>45056</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>36117658.350000001</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="9">
+        <v>45060</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>45532</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7">
+        <v>18367886.879999999</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="9">
+        <v>45538</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>45664</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>39048132.640000001</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="9">
+        <v>45670</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>45267</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="7">
+        <v>38705463.149999999</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="9">
+        <v>45271</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>45746</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7">
+        <v>41735534.729999997</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="9">
+        <v>45749</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>45212</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>13885656.75</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="9">
+        <v>45213</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>45265</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="7">
+        <v>41646259.030000001</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="9">
+        <v>45266</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>45803</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7">
+        <v>23068319.359999999</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="9">
+        <v>45808</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>45759</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>49789865.219999999</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="9">
+        <v>45765</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>45869</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7">
+        <v>10447691.49</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="9">
+        <v>45876</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>45402</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>29867361.440000001</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="9">
+        <v>45402</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>45319</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>7443758.1600000001</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="9">
+        <v>45326</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>46035</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7">
+        <v>24663320.23</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="9">
+        <v>46037</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>45760</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>25700157.25</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="9">
+        <v>45762</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>46062</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>7526691.2699999996</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="9">
+        <v>46063</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>44937</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="7">
+        <v>17694632.140000001</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="9">
+        <v>44942</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>45344</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7">
+        <v>11225632.23</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="9">
+        <v>45350</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>45117</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="7">
+        <v>40363851.43</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="9">
+        <v>45121</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>46051</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="7">
+        <v>16972952.129999999</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="9">
+        <v>46055</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>45589</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="7">
+        <v>8701225.9000000004</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="9">
+        <v>45591</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>44989</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
+        <v>3269271.41</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="9">
+        <v>44990</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>45830</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="7">
+        <v>8632709.2899999991</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="9">
+        <v>45834</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>45153</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="7">
+        <v>6074759.7300000004</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="9">
+        <v>45157</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>45140</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="7">
+        <v>23559459.289999999</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="9">
+        <v>45141</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>45025</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="7">
+        <v>35433531.43</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="9">
+        <v>45029</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>44930</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="7">
+        <v>43570287.990000002</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="9">
+        <v>44937</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>45341</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="7">
+        <v>6858907.6699999999</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="9">
+        <v>45348</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>45561</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="7">
+        <v>24124001.710000001</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="9">
+        <v>45562</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>45300</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="7">
+        <v>30303508.789999999</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="9">
+        <v>45304</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>45334</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="7">
+        <v>19724198.809999999</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="9">
+        <v>45335</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>45259</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="7">
+        <v>12054480.859999999</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" s="9">
+        <v>45259</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>45661</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="7">
+        <v>37783620.850000001</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" s="9">
+        <v>45661</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>45869</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="7">
+        <v>4454776.6399999997</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="9">
+        <v>45873</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>45857</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="7">
+        <v>21092023.359999999</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" s="9">
+        <v>45864</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>45557</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="7">
+        <v>42653823.729999997</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="9">
+        <v>45563</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>45182</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="7">
+        <v>10419840.039999999</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" s="9">
+        <v>45183</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>45070</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="7">
+        <v>3767798.53</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="9">
+        <v>45077</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>45387</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="7">
+        <v>21207352.84</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" s="9">
+        <v>45394</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>45255</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
+        <v>30107325.079999998</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="9">
+        <v>45257</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>45083</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="7">
+        <v>49445780.490000002</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" s="9">
+        <v>45088</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>45980</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="7">
+        <v>26795939.469999999</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" s="9">
+        <v>45987</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>45386</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="7">
+        <v>40972907.369999997</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" s="9">
+        <v>45390</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>45118</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="7">
+        <v>28696723.75</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" s="9">
+        <v>45122</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>45048</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="7">
+        <v>32450011.68</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" s="9">
+        <v>45048</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>45650</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="7">
+        <v>37790995.359999999</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F57" s="9">
+        <v>45653</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>45413</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="7">
+        <v>39507904.530000001</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" s="9">
+        <v>45417</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>45273</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="7">
+        <v>3771850.4</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59" s="9">
+        <v>45277</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>45168</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="7">
+        <v>40450672.799999997</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" s="9">
+        <v>45169</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>45480</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="7">
+        <v>24358120.390000001</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F61" s="9">
+        <v>45482</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>45749</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="7">
+        <v>4045299.89</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62" s="9">
+        <v>45756</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>45490</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="7">
+        <v>41153896.700000003</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F63" s="9">
+        <v>45494</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>45917</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="7">
+        <v>7329452.6299999999</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F64" s="9">
+        <v>45924</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>45208</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="7">
+        <v>10892210.220000001</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F65" s="9">
+        <v>45213</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>45068</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="7">
+        <v>9105614.0999999996</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F66" s="9">
+        <v>45074</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>45559</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="7">
+        <v>40665132.619999997</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F67" s="9">
+        <v>45562</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>45865</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="7">
+        <v>25975003.280000001</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F68" s="9">
+        <v>45872</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>45840</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="7">
+        <v>49624684.240000002</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F69" s="9">
+        <v>45847</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>45859</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="7">
+        <v>15453612.289999999</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F70" s="9">
+        <v>45865</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>45721</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="7">
+        <v>37107862.990000002</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F71" s="9">
+        <v>45726</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>45845</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="7">
+        <v>7017311.8200000003</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F72" s="9">
+        <v>45848</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>45156</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="7">
+        <v>39935379.920000002</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F73" s="9">
+        <v>45160</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>45279</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="7">
+        <v>21436650.530000001</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F74" s="9">
+        <v>45286</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>45048</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="7">
+        <v>9226641.1199999992</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F75" s="9">
+        <v>45048</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>45154</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="7">
+        <v>44589876.299999997</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F76" s="9">
+        <v>45155</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>45524</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="7">
+        <v>26317669.899999999</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F77" s="9">
+        <v>45531</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>45561</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="7">
+        <v>12679438.560000001</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F78" s="9">
+        <v>45563</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
+        <v>45967</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="7">
+        <v>38191084.899999999</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F79" s="9">
+        <v>45972</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>45089</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="7">
+        <v>9675327.6799999997</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F80" s="9">
+        <v>45091</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>45401</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="7">
+        <v>35792280.609999999</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F81" s="9">
+        <v>45402</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
+        <v>45043</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="7">
+        <v>15096026.35</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F82" s="9">
+        <v>45050</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
+        <v>45797</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="7">
+        <v>40256984.340000004</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F83" s="9">
+        <v>45802</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
+        <v>46014</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="7">
+        <v>11916669.689999999</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F84" s="9">
+        <v>46015</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
+        <v>46068</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="7">
+        <v>17756256.210000001</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F85" s="9">
+        <v>46068</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
+        <v>45747</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="7">
+        <v>34264026.159999996</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F86" s="9">
+        <v>45752</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
+        <v>44973</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="7">
+        <v>18093511.829999998</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F87" s="9">
+        <v>44973</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
+        <v>46025</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="7">
+        <v>16583229.710000001</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F88" s="9">
+        <v>46027</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="9">
+        <v>45031</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="7">
+        <v>22426050.600000001</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F89" s="9">
+        <v>45032</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
+        <v>45848</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="7">
+        <v>40960058.390000001</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F90" s="9">
+        <v>45855</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="9">
+        <v>45295</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="7">
+        <v>41591655.020000003</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F91" s="9">
+        <v>45299</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
+        <v>45236</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="7">
+        <v>20315465.829999998</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F92" s="9">
+        <v>45243</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="9">
+        <v>45647</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="7">
+        <v>700022.22</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F93" s="9">
+        <v>45654</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="9">
+        <v>44960</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="7">
+        <v>41277370.93</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="9">
+        <v>44966</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="9">
+        <v>45024</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="7">
+        <v>5123469.3</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F95" s="9">
+        <v>45029</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="9">
+        <v>44931</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="7">
+        <v>1467398.89</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F96" s="9">
+        <v>44938</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="9">
+        <v>45442</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="7">
+        <v>12817498.82</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F97" s="9">
+        <v>45446</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="9">
+        <v>45171</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="7">
+        <v>80995.08</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F98" s="9">
+        <v>45178</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="9">
+        <v>45223</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="7">
+        <v>43998796.880000003</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F99" s="9">
+        <v>45225</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="9">
+        <v>45763</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="7">
+        <v>25567937.739999998</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F100" s="9">
+        <v>45764</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="9">
+        <v>44931</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" s="7">
+        <v>27259841.989999998</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F101" s="9">
+        <v>44932</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="9">
+        <v>45515</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="7">
+        <v>44707182.399999999</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F102" s="9">
+        <v>45522</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="9">
+        <v>45900</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="7">
+        <v>40857569.740000002</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F103" s="9">
+        <v>45902</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="9">
+        <v>45171</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="7">
+        <v>35866428.670000002</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F104" s="9">
+        <v>45177</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="9">
+        <v>45627</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="7">
+        <v>35591179.359999999</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F105" s="9">
+        <v>45634</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="9">
+        <v>45573</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="7">
+        <v>24771838.82</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F106" s="9">
+        <v>45576</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="9">
+        <v>45713</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="7">
+        <v>20581629.199999999</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F107" s="9">
+        <v>45715</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="9">
+        <v>45990</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="7">
+        <v>35123827.509999998</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F108" s="9">
+        <v>45991</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="9">
+        <v>45260</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="7">
+        <v>29498440.510000002</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F109" s="9">
+        <v>45262</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="9">
+        <v>45175</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" s="7">
+        <v>19482579.140000001</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F110" s="9">
+        <v>45179</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="9">
+        <v>45789</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" s="7">
+        <v>17715369.829999998</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F111" s="9">
+        <v>45794</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="9">
+        <v>45996</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="7">
+        <v>24312246.77</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F112" s="9">
+        <v>46002</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="9">
+        <v>45534</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="7">
+        <v>13154448.279999999</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F113" s="9">
+        <v>45538</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="9">
+        <v>45104</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="7">
+        <v>3790504.46</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F114" s="9">
+        <v>45110</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="9">
+        <v>45471</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" s="7">
+        <v>14738416.91</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F115" s="9">
+        <v>45477</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="9">
+        <v>45854</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="7">
+        <v>17075073.190000001</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F116" s="9">
+        <v>45858</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="9">
+        <v>45107</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="7">
+        <v>3696328.78</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F117" s="9">
+        <v>45107</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="9">
+        <v>45097</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" s="7">
+        <v>37388433.090000004</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F118" s="9">
+        <v>45101</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="9">
+        <v>45653</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="7">
+        <v>18229133.039999999</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="F119" s="9">
+        <v>45658</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="9">
+        <v>45916</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="7">
+        <v>43083177.740000002</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F120" s="9">
+        <v>45921</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="9">
+        <v>45090</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="7">
+        <v>6078016.6100000003</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F121" s="9">
+        <v>45095</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="9">
+        <v>45000</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="7">
+        <v>11656503.970000001</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="F122" s="9">
+        <v>45007</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="9">
+        <v>45289</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" s="7">
+        <v>36946067.439999998</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F123" s="9">
+        <v>45293</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="9">
+        <v>45021</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="7">
+        <v>20391433.449999999</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F124" s="9">
+        <v>45027</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="9">
+        <v>44986</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="7">
+        <v>33997808.049999997</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F125" s="9">
+        <v>44992</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="9">
+        <v>45755</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="7">
+        <v>40139471.609999999</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="F126" s="9">
+        <v>45762</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="9">
+        <v>46058</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="7">
+        <v>40880903.380000003</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F127" s="9">
+        <v>46063</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="9">
+        <v>45464</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" s="7">
+        <v>37728149.460000001</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F128" s="9">
+        <v>45471</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="9">
+        <v>45693</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" s="7">
+        <v>3990629.59</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F129" s="9">
+        <v>45693</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="9">
+        <v>45255</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" s="7">
+        <v>6193825.6699999999</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F130" s="9">
+        <v>45255</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="9">
+        <v>45813</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" s="7">
+        <v>46228504.450000003</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F131" s="9">
+        <v>45820</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="9">
+        <v>45949</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" s="7">
+        <v>35833356.869999997</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="F132" s="9">
+        <v>45949</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="9">
+        <v>45714</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="7">
+        <v>14567305.359999999</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F133" s="9">
+        <v>45717</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="9">
+        <v>45444</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="7">
+        <v>6357963.5300000003</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="F134" s="9">
+        <v>45450</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="9">
+        <v>45367</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135" s="7">
+        <v>32824093.239999998</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F135" s="9">
+        <v>45368</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="9">
+        <v>45510</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" s="7">
+        <v>29410432.649999999</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F136" s="9">
+        <v>45511</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="9">
+        <v>45349</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" s="7">
+        <v>23552556.260000002</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F137" s="9">
+        <v>45354</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="9">
+        <v>45796</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" s="7">
+        <v>1799135.57</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F138" s="9">
+        <v>45801</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="9">
+        <v>45904</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" s="7">
+        <v>35112967.810000002</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F139" s="9">
+        <v>45911</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="9">
+        <v>45007</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140" s="7">
+        <v>44054362.119999997</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F140" s="9">
+        <v>45011</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="9">
+        <v>45316</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141" s="7">
+        <v>23344755.989999998</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F141" s="9">
+        <v>45318</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="9">
+        <v>45563</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" s="7">
+        <v>21837939.309999999</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F142" s="9">
+        <v>45569</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="9">
+        <v>45249</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C143" s="7">
+        <v>28156256.879999999</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F143" s="9">
+        <v>45252</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="9">
+        <v>45384</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="7">
+        <v>31981262.350000001</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F144" s="9">
+        <v>45387</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="9">
+        <v>46071</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145" s="7">
+        <v>13515210.59</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F145" s="9">
+        <v>46073</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="9">
+        <v>45440</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C146" s="7">
+        <v>13301832.85</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F146" s="9">
+        <v>45447</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="9">
+        <v>45744</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="7">
+        <v>27221773.239999998</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F147" s="9">
+        <v>45744</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="9">
+        <v>45054</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" s="7">
+        <v>10557401.470000001</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="F148" s="9">
+        <v>45058</v>
+      </c>
+      <c r="G148" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="9">
+        <v>45469</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C149" s="7">
+        <v>49513065.630000003</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="F149" s="9">
+        <v>45469</v>
+      </c>
+      <c r="G149" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="9">
+        <v>45573</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C150" s="7">
+        <v>12567840.1</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="F150" s="9">
+        <v>45573</v>
+      </c>
+      <c r="G150" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="9">
+        <v>45408</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" s="7">
+        <v>44839653.859999999</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="F151" s="9">
+        <v>45414</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="9">
+        <v>45679</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" s="7">
+        <v>3627445.8</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F152" s="9">
+        <v>45686</v>
+      </c>
+      <c r="G152" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="9">
+        <v>44970</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" s="7">
+        <v>29107139.489999998</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F153" s="9">
+        <v>44974</v>
+      </c>
+      <c r="G153" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="9">
+        <v>45279</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" s="7">
+        <v>1583256.41</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F154" s="9">
+        <v>45284</v>
+      </c>
+      <c r="G154" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="9">
+        <v>45973</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="7">
+        <v>49776228.359999999</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F155" s="9">
+        <v>45979</v>
+      </c>
+      <c r="G155" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="9">
+        <v>45039</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" s="7">
+        <v>9167625.7400000002</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F156" s="9">
+        <v>45043</v>
+      </c>
+      <c r="G156" s="8" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
